--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H2">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I2">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J2">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.20338333333333</v>
+        <v>16.82700666666667</v>
       </c>
       <c r="N2">
-        <v>63.61015</v>
+        <v>50.48102</v>
       </c>
       <c r="O2">
-        <v>0.1585031951394179</v>
+        <v>0.1252829202765328</v>
       </c>
       <c r="P2">
-        <v>0.1619144072927482</v>
+        <v>0.1283458604125</v>
       </c>
       <c r="Q2">
-        <v>5.172077686350001</v>
+        <v>0.03478142277999999</v>
       </c>
       <c r="R2">
-        <v>46.54869917715001</v>
+        <v>0.31303280502</v>
       </c>
       <c r="S2">
-        <v>0.1423316583026885</v>
+        <v>0.000600675914518186</v>
       </c>
       <c r="T2">
-        <v>0.1453948361911766</v>
+        <v>0.0006153613509944874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H3">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I3">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J3">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>60.35221800000001</v>
       </c>
       <c r="O3">
-        <v>0.1503851097152057</v>
+        <v>0.1497810883418348</v>
       </c>
       <c r="P3">
-        <v>0.1536216092286016</v>
+        <v>0.1534429642470134</v>
       </c>
       <c r="Q3">
-        <v>4.907178493362001</v>
+        <v>0.041582678202</v>
       </c>
       <c r="R3">
-        <v>44.16460644025801</v>
+        <v>0.3742441038180001</v>
       </c>
       <c r="S3">
-        <v>0.1350418332638009</v>
+        <v>0.0007181337409654349</v>
       </c>
       <c r="T3">
-        <v>0.1379481238431945</v>
+        <v>0.0007356908082283959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H4">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I4">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J4">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.321269</v>
+        <v>51.48756166666666</v>
       </c>
       <c r="N4">
-        <v>114.963807</v>
+        <v>154.462685</v>
       </c>
       <c r="O4">
-        <v>0.2864657721274259</v>
+        <v>0.3833428138051528</v>
       </c>
       <c r="P4">
-        <v>0.2926309192876121</v>
+        <v>0.3927148502140002</v>
       </c>
       <c r="Q4">
-        <v>9.347592183363</v>
+        <v>0.106424789965</v>
       </c>
       <c r="R4">
-        <v>84.12832965026701</v>
+        <v>0.957823109685</v>
       </c>
       <c r="S4">
-        <v>0.257238652873798</v>
+        <v>0.001837958396468801</v>
       </c>
       <c r="T4">
-        <v>0.2627747912350315</v>
+        <v>0.001882893145182802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H5">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I5">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J5">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.4549615</v>
+        <v>9.6159655</v>
       </c>
       <c r="N5">
-        <v>16.909923</v>
+        <v>19.231931</v>
       </c>
       <c r="O5">
-        <v>0.06320398926259876</v>
+        <v>0.07159420941484877</v>
       </c>
       <c r="P5">
-        <v>0.04304281879402911</v>
+        <v>0.04889637197482995</v>
       </c>
       <c r="Q5">
-        <v>2.0623933938105</v>
+        <v>0.0198762006885</v>
       </c>
       <c r="R5">
-        <v>12.374360362863</v>
+        <v>0.119257204131</v>
       </c>
       <c r="S5">
-        <v>0.05675550322615429</v>
+        <v>0.0003432624105468447</v>
       </c>
       <c r="T5">
-        <v>0.03865130776441196</v>
+        <v>0.0002344363692015883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H6">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I6">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J6">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.67557266666667</v>
+        <v>36.26411666666667</v>
       </c>
       <c r="N6">
-        <v>137.026718</v>
+        <v>108.79235</v>
       </c>
       <c r="O6">
-        <v>0.3414419337553518</v>
+        <v>0.2699989681616309</v>
       </c>
       <c r="P6">
-        <v>0.348790245397009</v>
+        <v>0.2765999531516566</v>
       </c>
       <c r="Q6">
-        <v>11.141505413862</v>
+        <v>0.07495792914999999</v>
       </c>
       <c r="R6">
-        <v>100.273548724758</v>
+        <v>0.67462136235</v>
       </c>
       <c r="S6">
-        <v>0.3066057854715772</v>
+        <v>0.001294525037902019</v>
       </c>
       <c r="T6">
-        <v>0.3132043741042043</v>
+        <v>0.001326173826794013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H7">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I7">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J7">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.20338333333333</v>
+        <v>16.82700666666667</v>
       </c>
       <c r="N7">
-        <v>63.61015</v>
+        <v>50.48102</v>
       </c>
       <c r="O7">
-        <v>0.1585031951394179</v>
+        <v>0.1252829202765328</v>
       </c>
       <c r="P7">
-        <v>0.1619144072927482</v>
+        <v>0.1283458604125</v>
       </c>
       <c r="Q7">
-        <v>0.587644701288889</v>
+        <v>5.641702705177777</v>
       </c>
       <c r="R7">
-        <v>5.288802311600001</v>
+        <v>50.7753243466</v>
       </c>
       <c r="S7">
-        <v>0.01617153683672947</v>
+        <v>0.09743232625380215</v>
       </c>
       <c r="T7">
-        <v>0.01651957110157163</v>
+        <v>0.0998143698872416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H8">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I8">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J8">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>60.35221800000001</v>
       </c>
       <c r="O8">
-        <v>0.1503851097152057</v>
+        <v>0.1497810883418348</v>
       </c>
       <c r="P8">
-        <v>0.1536216092286016</v>
+        <v>0.1534429642470134</v>
       </c>
       <c r="Q8">
-        <v>0.5575472014880001</v>
+        <v>6.744896825660001</v>
       </c>
       <c r="R8">
-        <v>5.017924813392002</v>
+        <v>60.70407143094</v>
       </c>
       <c r="S8">
-        <v>0.01534327645140481</v>
+        <v>0.1164845122843515</v>
       </c>
       <c r="T8">
-        <v>0.01567348538540706</v>
+        <v>0.1193323473053326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H9">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I9">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J9">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.321269</v>
+        <v>51.48756166666666</v>
       </c>
       <c r="N9">
-        <v>114.963807</v>
+        <v>154.462685</v>
       </c>
       <c r="O9">
-        <v>0.2864657721274259</v>
+        <v>0.3833428138051528</v>
       </c>
       <c r="P9">
-        <v>0.2926309192876121</v>
+        <v>0.3927148502140002</v>
       </c>
       <c r="Q9">
-        <v>1.062061196578667</v>
+        <v>17.26257805039445</v>
       </c>
       <c r="R9">
-        <v>9.558550769208001</v>
+        <v>155.36320245355</v>
       </c>
       <c r="S9">
-        <v>0.02922711925362787</v>
+        <v>0.2981250917465271</v>
       </c>
       <c r="T9">
-        <v>0.02985612805258057</v>
+        <v>0.3054137094370614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H10">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I10">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J10">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.4549615</v>
+        <v>9.6159655</v>
       </c>
       <c r="N10">
-        <v>16.909923</v>
+        <v>19.231931</v>
       </c>
       <c r="O10">
-        <v>0.06320398926259876</v>
+        <v>0.07159420941484877</v>
       </c>
       <c r="P10">
-        <v>0.04304281879402911</v>
+        <v>0.04889637197482995</v>
       </c>
       <c r="Q10">
-        <v>0.234326439652</v>
+        <v>3.224008859621667</v>
       </c>
       <c r="R10">
-        <v>1.405958637912</v>
+        <v>19.34405315773</v>
       </c>
       <c r="S10">
-        <v>0.006448486036444472</v>
+        <v>0.05567870188684612</v>
       </c>
       <c r="T10">
-        <v>0.004391511029617151</v>
+        <v>0.03802663009740904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H11">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I11">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J11">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.67557266666667</v>
+        <v>36.26411666666667</v>
       </c>
       <c r="N11">
-        <v>137.026718</v>
+        <v>108.79235</v>
       </c>
       <c r="O11">
-        <v>0.3414419337553518</v>
+        <v>0.2699989681616309</v>
       </c>
       <c r="P11">
-        <v>0.348790245397009</v>
+        <v>0.2765999531516566</v>
       </c>
       <c r="Q11">
-        <v>1.265883271265778</v>
+        <v>12.15851215561111</v>
       </c>
       <c r="R11">
-        <v>11.392949441392</v>
+        <v>109.4266094005</v>
       </c>
       <c r="S11">
-        <v>0.03483614828377454</v>
+        <v>0.2099777646948859</v>
       </c>
       <c r="T11">
-        <v>0.03558587129280476</v>
+        <v>0.2151113401393682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.281311</v>
+      </c>
+      <c r="I12">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J12">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.82700666666667</v>
+      </c>
+      <c r="N12">
+        <v>50.48102</v>
+      </c>
+      <c r="O12">
+        <v>0.1252829202765328</v>
+      </c>
+      <c r="P12">
+        <v>0.1283458604125</v>
+      </c>
+      <c r="Q12">
+        <v>1.577874024135555</v>
+      </c>
+      <c r="R12">
+        <v>14.20086621722</v>
+      </c>
+      <c r="S12">
+        <v>0.02724991810821245</v>
+      </c>
+      <c r="T12">
+        <v>0.02791612917426387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.281311</v>
+      </c>
+      <c r="I13">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J13">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.117406</v>
+      </c>
+      <c r="N13">
+        <v>60.35221800000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1497810883418348</v>
+      </c>
+      <c r="P13">
+        <v>0.1534429642470134</v>
+      </c>
+      <c r="Q13">
+        <v>1.886415866422</v>
+      </c>
+      <c r="R13">
+        <v>16.977742797798</v>
+      </c>
+      <c r="S13">
+        <v>0.03257844231651789</v>
+      </c>
+      <c r="T13">
+        <v>0.03337492613345239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.281311</v>
+      </c>
+      <c r="I14">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J14">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>51.48756166666666</v>
+      </c>
+      <c r="N14">
+        <v>154.462685</v>
+      </c>
+      <c r="O14">
+        <v>0.3833428138051528</v>
+      </c>
+      <c r="P14">
+        <v>0.3927148502140002</v>
+      </c>
+      <c r="Q14">
+        <v>4.828005820003889</v>
+      </c>
+      <c r="R14">
+        <v>43.45205238003499</v>
+      </c>
+      <c r="S14">
+        <v>0.08337976366215691</v>
+      </c>
+      <c r="T14">
+        <v>0.08541824763175604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.281311</v>
+      </c>
+      <c r="I15">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J15">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.6159655</v>
+      </c>
+      <c r="N15">
+        <v>19.231931</v>
+      </c>
+      <c r="O15">
+        <v>0.07159420941484877</v>
+      </c>
+      <c r="P15">
+        <v>0.04889637197482995</v>
+      </c>
+      <c r="Q15">
+        <v>0.9016922902568333</v>
+      </c>
+      <c r="R15">
+        <v>5.410153741540999</v>
+      </c>
+      <c r="S15">
+        <v>0.0155722451174558</v>
+      </c>
+      <c r="T15">
+        <v>0.01063530550821932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.281311</v>
+      </c>
+      <c r="I16">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J16">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>36.26411666666667</v>
+      </c>
+      <c r="N16">
+        <v>108.79235</v>
+      </c>
+      <c r="O16">
+        <v>0.2699989681616309</v>
+      </c>
+      <c r="P16">
+        <v>0.2765999531516566</v>
+      </c>
+      <c r="Q16">
+        <v>3.400498307872222</v>
+      </c>
+      <c r="R16">
+        <v>30.60448477085</v>
+      </c>
+      <c r="S16">
+        <v>0.05872667842884291</v>
+      </c>
+      <c r="T16">
+        <v>0.06016243918549437</v>
       </c>
     </row>
   </sheetData>
